--- a/IDXX_Model.xlsx
+++ b/IDXX_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DEEE1A-3C54-44F9-B27C-E28E9816913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD521C5-FB9B-4CE1-9E4B-AD92F1E91009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2068,7 +2068,7 @@
                   <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-398</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>281</c:v>
@@ -2324,7 +2324,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>792</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>289</c:v>
@@ -2488,7 +2488,7 @@
                   <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-158</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>171</c:v>
@@ -2500,7 +2500,7 @@
                   <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-75</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>166</c:v>
@@ -2616,7 +2616,7 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>315</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>164</c:v>
@@ -2628,7 +2628,7 @@
                   <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>285</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>162</c:v>
@@ -3029,70 +3029,70 @@
             <c:numRef>
               <c:f>[1]Model!$AW$55:$BQ$55</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>493</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-83</c:v>
+                  <c:v>-87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>621</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>568</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>592</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>438</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>662</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>323</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>656</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>563</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>592</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>738</c:v>
+                  <c:v>899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>692</c:v>
+                  <c:v>869</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1143</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>788</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>825</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>834</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>546</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>654</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3126,67 +3126,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>447</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1017</c:v>
+                  <c:v>-83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1072</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>369</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1150</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>425</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>794</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>386</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>751</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>815</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>315</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>536</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>902</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1383</c:v>
+                  <c:v>1143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37</c:v>
+                  <c:v>788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>481</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1304</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1665</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>127</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,67 +3263,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3588</c:v>
+                  <c:v>2.0477815699658786E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2764</c:v>
+                  <c:v>-0.24273972602739724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3737</c:v>
+                  <c:v>4.1817674937273397E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4262</c:v>
+                  <c:v>3.1711450012103626E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3953</c:v>
+                  <c:v>0.1017279821627648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4294</c:v>
+                  <c:v>0.55354558610709126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4160</c:v>
+                  <c:v>0.11319240032111311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4701</c:v>
+                  <c:v>0.10300328484279686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4275</c:v>
+                  <c:v>8.1457121173792002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4493</c:v>
+                  <c:v>4.6343735444806633E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4479</c:v>
+                  <c:v>7.6682692307692202E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5202</c:v>
+                  <c:v>0.10657306955966805</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4778</c:v>
+                  <c:v>0.11766081871345024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4996</c:v>
+                  <c:v>0.11195192521700426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4909</c:v>
+                  <c:v>9.6003572225943357E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5815</c:v>
+                  <c:v>0.1178392925797771</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5243</c:v>
+                  <c:v>9.7321054834658804E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5422</c:v>
+                  <c:v>8.526821457165723E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5494</c:v>
+                  <c:v>0.11916887349765726</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6436</c:v>
+                  <c:v>0.10679277730008607</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5866</c:v>
+                  <c:v>0.11882510013351144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,256 +3693,108 @@
             </c:spPr>
           </c:errBars>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'[1]Notes | Quant Analysis'!$I$182:$I$262</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="81"/>
-                <c:pt idx="0">
+                <c:pt idx="35">
+                  <c:v>The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>There is slight implied upside to mean 1-day returns</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>n =</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Histogram Data</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bin</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>-0.04</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.4999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.1999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.0999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.8999999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.6999999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.5999999999999988E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.4999999999999988E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.3999999999999987E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.2999999999999986E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.1999999999999985E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.0999999999999984E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.9999999999999983E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.8999999999999982E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.7999999999999981E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.4999999999999979E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.3999999999999978E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.2999999999999977E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.1999999999999976E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.0999999999999975E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-9.9999999999999742E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-8.9999999999999733E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-7.9999999999999724E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-6.9999999999999724E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-5.9999999999999724E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-4.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-3.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-2.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-9.9999999999997227E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.7755575615628914E-17</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.0000000000000288E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.1000000000000031E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.2000000000000031E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.3000000000000032E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.4000000000000033E-2</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5000000000000034E-2</c:v>
+                  <c:v>-0.039</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.6000000000000035E-2</c:v>
+                  <c:v>-0.038</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.7000000000000036E-2</c:v>
+                  <c:v>-0.037</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8000000000000037E-2</c:v>
+                  <c:v>-0.036</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.9000000000000038E-2</c:v>
+                  <c:v>-0.035</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0000000000000039E-2</c:v>
+                  <c:v>-0.034</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.1000000000000039E-2</c:v>
+                  <c:v>-0.033</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.200000000000004E-2</c:v>
+                  <c:v>-0.032</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.3000000000000041E-2</c:v>
+                  <c:v>-0.031</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.4000000000000042E-2</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.5000000000000043E-2</c:v>
+                  <c:v>-0.029</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6000000000000044E-2</c:v>
+                  <c:v>-0.028</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.7000000000000045E-2</c:v>
+                  <c:v>-0.027</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.8000000000000046E-2</c:v>
+                  <c:v>-0.026</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.9000000000000047E-2</c:v>
+                  <c:v>-0.025</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0000000000000047E-2</c:v>
+                  <c:v>-0.024</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1000000000000048E-2</c:v>
+                  <c:v>-0.023</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.2000000000000049E-2</c:v>
+                  <c:v>-0.022</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.300000000000005E-2</c:v>
+                  <c:v>-0.021</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.4000000000000051E-2</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.5000000000000052E-2</c:v>
+                  <c:v>-0.019</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.6000000000000053E-2</c:v>
+                  <c:v>-0.018</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.7000000000000054E-2</c:v>
+                  <c:v>-0.017</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.8000000000000055E-2</c:v>
+                  <c:v>-0.016</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.9000000000000055E-2</c:v>
+                  <c:v>-0.015</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.0000000000000056E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>-0.014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3950,215 +3802,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
-                <c:pt idx="0">
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="55">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="57">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="58">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="59">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="60">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="61">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="62">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1</c:v>
@@ -4170,28 +3887,28 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,9 +3928,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$L$180</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distribution Overlay</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4230,262 +3944,105 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'[1]Notes | Quant Analysis'!$L$182:$L$264</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="83"/>
-                <c:pt idx="0">
-                  <c:v>-4.1000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="52">
+                  <c:v>Distribution Overlay</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v> (X) 1-Day Δ  </c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.041</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>-0.04</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.4999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.1999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.0999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.8999999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.6999999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.5999999999999988E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.4999999999999988E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.3999999999999987E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.2999999999999986E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.1999999999999985E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.0999999999999984E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.9999999999999983E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.8999999999999982E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.7999999999999981E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.4999999999999979E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.3999999999999978E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.2999999999999977E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.1999999999999976E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.0999999999999975E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-9.9999999999999742E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-8.9999999999999733E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-7.9999999999999724E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-6.9999999999999724E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-5.9999999999999724E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-4.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-3.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-2.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.9999999999999723E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-9.9999999999997227E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.7755575615628914E-17</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.0000000000000278E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.0000000000000279E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.0000000000000288E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1000000000000031E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.2000000000000031E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.3000000000000032E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4000000000000033E-2</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5000000000000034E-2</c:v>
+                  <c:v>-0.039</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.6000000000000035E-2</c:v>
+                  <c:v>-0.038</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7000000000000036E-2</c:v>
+                  <c:v>-0.037</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8000000000000037E-2</c:v>
+                  <c:v>-0.036</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9000000000000038E-2</c:v>
+                  <c:v>-0.035</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0000000000000039E-2</c:v>
+                  <c:v>-0.034</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.1000000000000039E-2</c:v>
+                  <c:v>-0.033</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.200000000000004E-2</c:v>
+                  <c:v>-0.032</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.3000000000000041E-2</c:v>
+                  <c:v>-0.031</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.4000000000000042E-2</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.5000000000000043E-2</c:v>
+                  <c:v>-0.029</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.6000000000000044E-2</c:v>
+                  <c:v>-0.028</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7000000000000045E-2</c:v>
+                  <c:v>-0.027</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8000000000000046E-2</c:v>
+                  <c:v>-0.026</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9000000000000047E-2</c:v>
+                  <c:v>-0.025</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0000000000000047E-2</c:v>
+                  <c:v>-0.024</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.1000000000000048E-2</c:v>
+                  <c:v>-0.023</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.2000000000000049E-2</c:v>
+                  <c:v>-0.022</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.300000000000005E-2</c:v>
+                  <c:v>-0.021</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.4000000000000051E-2</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.5000000000000052E-2</c:v>
+                  <c:v>-0.019</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.6000000000000053E-2</c:v>
+                  <c:v>-0.018</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.7000000000000054E-2</c:v>
+                  <c:v>-0.017</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.8000000000000055E-2</c:v>
+                  <c:v>-0.016</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.9000000000000055E-2</c:v>
+                  <c:v>-0.015</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.0000000000000056E-2</c:v>
+                  <c:v>-0.014</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.1000000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>-0.013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4493,254 +4050,101 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="83"/>
-                <c:pt idx="0">
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>0.24330261971412301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="55">
                   <c:v>0.30633285338385041</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="56">
                   <c:v>0.38351958154803484</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="57">
                   <c:v>0.47745086551047328</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="58">
                   <c:v>0.59104017531798669</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="59">
                   <c:v>0.72753266253923077</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="60">
                   <c:v>0.89050254374147597</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="61">
                   <c:v>1.0838395846539897</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="62">
                   <c:v>1.3117226816436751</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="63">
                   <c:v>1.578578645060458</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="64">
                   <c:v>1.8890245151375733</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="65">
                   <c:v>2.2477920988013178</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="66">
                   <c:v>2.6596339130588227</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="67">
                   <c:v>3.1292103587889639</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="68">
                   <c:v>3.6609587205509038</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="69">
                   <c:v>4.258945476645092</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="70">
                   <c:v>4.9267043820016658</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="71">
                   <c:v>5.6670638170172571</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="72">
                   <c:v>6.4819679309391072</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="73">
                   <c:v>7.3722970932413006</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="74">
                   <c:v>8.3376940391129448</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
                   <c:v>9.3764027912942609</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="76">
                   <c:v>10.485127896633797</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="77">
                   <c:v>11.658921673763489</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="78">
                   <c:v>12.891106979905215</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="79">
                   <c:v>14.173242436056498</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="80">
                   <c:v>15.495136085031207</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="81">
                   <c:v>16.844912102018611</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="82">
                   <c:v>18.209133462105321</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.572981447529923</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.920490626570793</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.234835553740457</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.49866304135163</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24.694461559704717</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25.804957264360048</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>26.81352444662306</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>27.704596967012165</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28.464066550027482</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>29.079653753616999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29.541238007479279</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29.84113433421124</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>29.974306183221255</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>29.938506141234956</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.734339026119326</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.365244888858772</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.837402591235453</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>28.159557735840721</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>27.342781644290781</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>26.400170664392089</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25.346497213325758</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>24.197825535155634</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>22.971106103509396</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>21.683762906467617</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20.353287519327644</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18.996852945382901</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>17.630958759087321</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16.271117218493135</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14.931587840618413</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>13.625165579865037</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.363025342638814</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11.154623231589555</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10.007652748181465</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.9280522821969779</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.9200586489003983</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.9863002426241483</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.1279225789406535</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.3447385928472428</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.6353960236808662</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.9975545082321977</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.4280655687282566</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.9231494610784972</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.4785637766983237</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.089759704725016</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.7520229011767259</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.4605969252869571</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.210788147600123</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.99805187629411873</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.81806016490533739</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.66675234354585899</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.54036975333680215</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.43547646445183286</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.34896793239983337</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.27806961002886771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4760,9 +4164,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$O$182</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mean</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4856,14 +4257,8 @@
             <c:numRef>
               <c:f>'[1]Notes | Quant Analysis'!$P$182:$P$183</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.8840192365155138E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4810405770502317E-4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4873,12 +4268,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4897,9 +4286,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$O$184</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-3σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4993,14 +4379,8 @@
             <c:numRef>
               <c:f>'[1]Notes | Quant Analysis'!$P$184:$P$185</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>-3.9630645898099899E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.9630645898099899E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5010,12 +4390,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5034,9 +4408,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$O$186</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-2σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5130,14 +4501,8 @@
             <c:numRef>
               <c:f>'[1]Notes | Quant Analysis'!$P$186:$P$187</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>-2.6324296624182748E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.6324296624182748E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5147,12 +4512,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5171,9 +4530,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$O$188</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-1σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5267,14 +4623,8 @@
             <c:numRef>
               <c:f>'[1]Notes | Quant Analysis'!$P$188:$P$189</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>-1.3017947350265598E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.3017947350265598E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5284,12 +4634,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5308,9 +4652,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$O$190</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5440,14 +4781,8 @@
             <c:numRef>
               <c:f>'[1]Notes | Quant Analysis'!$P$190:$P$191</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.3594751197568701E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3594751197568701E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5457,12 +4792,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5481,9 +4810,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$O$192</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5577,14 +4903,8 @@
             <c:numRef>
               <c:f>'[1]Notes | Quant Analysis'!$P$192:$P$193</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.6901100471485851E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6901100471485851E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5594,12 +4914,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5618,9 +4932,6 @@
               <c:f>'[1]Notes | Quant Analysis'!$O$194</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5743,14 +5054,8 @@
             <c:numRef>
               <c:f>'[1]Notes | Quant Analysis'!$P$194:$P$195</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4.0207449745403002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0207449745403002E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5760,12 +5065,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8100,7 +7399,7 @@
             <v>66</v>
           </cell>
           <cell r="AZ7">
-            <v>792</v>
+            <v>82</v>
           </cell>
           <cell r="BA7">
             <v>289</v>
@@ -8168,7 +7467,7 @@
             <v>518</v>
           </cell>
           <cell r="AZ8">
-            <v>-398</v>
+            <v>312</v>
           </cell>
           <cell r="BA8">
             <v>281</v>
@@ -8476,7 +7775,7 @@
             <v>291</v>
           </cell>
           <cell r="BL13">
-            <v>-158</v>
+            <v>122</v>
           </cell>
           <cell r="BM13">
             <v>171</v>
@@ -8488,7 +7787,7 @@
             <v>304</v>
           </cell>
           <cell r="BP13">
-            <v>-75</v>
+            <v>85</v>
           </cell>
           <cell r="BQ13">
             <v>166</v>
@@ -8544,7 +7843,7 @@
             <v>130</v>
           </cell>
           <cell r="BL14">
-            <v>315</v>
+            <v>35</v>
           </cell>
           <cell r="BM14">
             <v>164</v>
@@ -8556,7 +7855,7 @@
             <v>127</v>
           </cell>
           <cell r="BP14">
-            <v>285</v>
+            <v>125</v>
           </cell>
           <cell r="BQ14">
             <v>162</v>
@@ -8564,1459 +7863,684 @@
         </row>
         <row r="44">
           <cell r="AW44">
-            <v>3588</v>
+            <v>2.0477815699658786E-2</v>
           </cell>
           <cell r="AX44">
-            <v>2764</v>
+            <v>-0.24273972602739724</v>
           </cell>
           <cell r="AY44">
-            <v>3737</v>
+            <v>4.1817674937273397E-2</v>
           </cell>
           <cell r="AZ44">
-            <v>4262</v>
+            <v>3.1711450012103626E-2</v>
           </cell>
           <cell r="BA44">
-            <v>3953</v>
+            <v>0.1017279821627648</v>
           </cell>
           <cell r="BB44">
-            <v>4294</v>
+            <v>0.55354558610709126</v>
           </cell>
           <cell r="BC44">
-            <v>4160</v>
+            <v>0.11319240032111311</v>
           </cell>
           <cell r="BD44">
-            <v>4701</v>
+            <v>0.10300328484279686</v>
           </cell>
           <cell r="BE44">
-            <v>4275</v>
+            <v>8.1457121173792002E-2</v>
           </cell>
           <cell r="BF44">
-            <v>4493</v>
+            <v>4.6343735444806633E-2</v>
           </cell>
           <cell r="BG44">
-            <v>4479</v>
+            <v>7.6682692307692202E-2</v>
           </cell>
           <cell r="BH44">
-            <v>5202</v>
+            <v>0.10657306955966805</v>
           </cell>
           <cell r="BI44">
-            <v>4778</v>
+            <v>0.11766081871345024</v>
           </cell>
           <cell r="BJ44">
-            <v>4996</v>
+            <v>0.11195192521700426</v>
           </cell>
           <cell r="BK44">
-            <v>4909</v>
+            <v>9.6003572225943357E-2</v>
           </cell>
           <cell r="BL44">
-            <v>5815</v>
+            <v>0.1178392925797771</v>
           </cell>
           <cell r="BM44">
-            <v>5243</v>
+            <v>9.7321054834658804E-2</v>
           </cell>
           <cell r="BN44">
-            <v>5422</v>
+            <v>8.526821457165723E-2</v>
           </cell>
           <cell r="BO44">
-            <v>5494</v>
+            <v>0.11916887349765726</v>
           </cell>
           <cell r="BP44">
-            <v>6436</v>
+            <v>0.10679277730008607</v>
           </cell>
           <cell r="BQ44">
-            <v>5866</v>
+            <v>0.11882510013351144</v>
           </cell>
         </row>
         <row r="55">
           <cell r="AW55">
-            <v>493</v>
+            <v>590</v>
           </cell>
           <cell r="AX55">
-            <v>-83</v>
+            <v>-87</v>
           </cell>
           <cell r="AY55">
-            <v>621</v>
+            <v>780</v>
           </cell>
           <cell r="AZ55">
-            <v>568</v>
+            <v>671</v>
           </cell>
           <cell r="BA55">
-            <v>302</v>
+            <v>367</v>
           </cell>
           <cell r="BB55">
-            <v>592</v>
+            <v>662</v>
           </cell>
           <cell r="BC55">
-            <v>438</v>
+            <v>495</v>
           </cell>
           <cell r="BD55">
-            <v>662</v>
+            <v>757</v>
           </cell>
           <cell r="BE55">
-            <v>323</v>
+            <v>386</v>
           </cell>
           <cell r="BF55">
-            <v>656</v>
+            <v>720</v>
           </cell>
           <cell r="BG55">
             <v>816</v>
           </cell>
           <cell r="BH55">
-            <v>563</v>
+            <v>761</v>
           </cell>
           <cell r="BI55">
-            <v>592</v>
+            <v>679</v>
           </cell>
           <cell r="BJ55">
-            <v>738</v>
+            <v>899</v>
           </cell>
           <cell r="BK55">
-            <v>692</v>
+            <v>869</v>
           </cell>
           <cell r="BL55">
-            <v>1143</v>
+            <v>1226</v>
           </cell>
           <cell r="BM55">
-            <v>788</v>
+            <v>923</v>
           </cell>
           <cell r="BN55">
-            <v>825</v>
+            <v>998</v>
           </cell>
           <cell r="BO55">
-            <v>834</v>
+            <v>1043</v>
           </cell>
           <cell r="BP55">
-            <v>546</v>
+            <v>528</v>
           </cell>
           <cell r="BQ55">
-            <v>654</v>
+            <v>764</v>
           </cell>
         </row>
         <row r="103">
           <cell r="AW103">
-            <v>447</v>
+            <v>493</v>
           </cell>
           <cell r="AX103">
-            <v>1017</v>
+            <v>-83</v>
           </cell>
           <cell r="AY103">
-            <v>254</v>
+            <v>621</v>
           </cell>
           <cell r="AZ103">
-            <v>1072</v>
+            <v>568</v>
           </cell>
           <cell r="BA103">
-            <v>369</v>
+            <v>302</v>
           </cell>
           <cell r="BB103">
-            <v>1150</v>
+            <v>592</v>
           </cell>
           <cell r="BC103">
-            <v>425</v>
+            <v>438</v>
           </cell>
           <cell r="BD103">
-            <v>794</v>
+            <v>662</v>
           </cell>
           <cell r="BE103">
-            <v>84</v>
+            <v>323</v>
           </cell>
           <cell r="BF103">
-            <v>386</v>
+            <v>656</v>
           </cell>
           <cell r="BG103">
-            <v>751</v>
+            <v>816</v>
           </cell>
           <cell r="BH103">
-            <v>815</v>
+            <v>563</v>
           </cell>
           <cell r="BI103">
-            <v>315</v>
+            <v>592</v>
           </cell>
           <cell r="BJ103">
-            <v>536</v>
+            <v>738</v>
           </cell>
           <cell r="BK103">
-            <v>902</v>
+            <v>692</v>
           </cell>
           <cell r="BL103">
-            <v>1383</v>
+            <v>1143</v>
           </cell>
           <cell r="BM103">
-            <v>37</v>
+            <v>788</v>
           </cell>
           <cell r="BN103">
-            <v>481</v>
+            <v>825</v>
           </cell>
           <cell r="BO103">
-            <v>1304</v>
+            <v>834</v>
           </cell>
           <cell r="BP103">
-            <v>1665</v>
+            <v>546</v>
           </cell>
           <cell r="BQ103">
-            <v>127</v>
+            <v>654</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="180">
-          <cell r="L180" t="str">
-            <v>Distribution Overlay</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="I182">
-            <v>-0.04</v>
-          </cell>
-          <cell r="J182">
-            <v>1</v>
-          </cell>
-          <cell r="L182">
-            <v>-4.1000000000000002E-2</v>
-          </cell>
-          <cell r="M182">
-            <v>0.24330261971412301</v>
-          </cell>
-          <cell r="O182" t="str">
-            <v>Mean</v>
-          </cell>
-          <cell r="P182">
-            <v>2.8840192365155138E-4</v>
-          </cell>
-          <cell r="Q182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="I183">
-            <v>-3.9E-2</v>
-          </cell>
-          <cell r="J183">
-            <v>1</v>
-          </cell>
-          <cell r="L183">
-            <v>-0.04</v>
-          </cell>
-          <cell r="M183">
-            <v>0.30633285338385041</v>
-          </cell>
-          <cell r="P183">
-            <v>3.4810405770502317E-4</v>
-          </cell>
-          <cell r="Q183">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="I184">
-            <v>-3.7999999999999999E-2</v>
-          </cell>
-          <cell r="J184">
-            <v>0</v>
-          </cell>
-          <cell r="L184">
-            <v>-3.9E-2</v>
-          </cell>
-          <cell r="M184">
-            <v>0.38351958154803484</v>
-          </cell>
-          <cell r="O184" t="str">
-            <v>-3σ</v>
-          </cell>
-          <cell r="P184">
-            <v>-3.9630645898099899E-2</v>
-          </cell>
-          <cell r="Q184">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="I185">
-            <v>-3.6999999999999998E-2</v>
-          </cell>
-          <cell r="J185">
-            <v>0</v>
-          </cell>
-          <cell r="L185">
-            <v>-3.7999999999999999E-2</v>
-          </cell>
-          <cell r="M185">
-            <v>0.47745086551047328</v>
-          </cell>
-          <cell r="P185">
-            <v>-3.9630645898099899E-2</v>
-          </cell>
-          <cell r="Q185">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="I186">
-            <v>-3.5999999999999997E-2</v>
-          </cell>
-          <cell r="J186">
-            <v>1</v>
-          </cell>
-          <cell r="L186">
-            <v>-3.6999999999999998E-2</v>
-          </cell>
-          <cell r="M186">
-            <v>0.59104017531798669</v>
-          </cell>
-          <cell r="O186" t="str">
-            <v>-2σ</v>
-          </cell>
-          <cell r="P186">
-            <v>-2.6324296624182748E-2</v>
-          </cell>
-          <cell r="Q186">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="I187">
-            <v>-3.4999999999999996E-2</v>
-          </cell>
-          <cell r="J187">
-            <v>4</v>
-          </cell>
-          <cell r="L187">
-            <v>-3.5999999999999997E-2</v>
-          </cell>
-          <cell r="M187">
-            <v>0.72753266253923077</v>
-          </cell>
-          <cell r="P187">
-            <v>-2.6324296624182748E-2</v>
-          </cell>
-          <cell r="Q187">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="I188">
-            <v>-3.3999999999999996E-2</v>
-          </cell>
-          <cell r="J188">
-            <v>2</v>
-          </cell>
-          <cell r="L188">
-            <v>-3.4999999999999996E-2</v>
-          </cell>
-          <cell r="M188">
-            <v>0.89050254374147597</v>
-          </cell>
-          <cell r="O188" t="str">
-            <v>-1σ</v>
-          </cell>
-          <cell r="P188">
-            <v>-1.3017947350265598E-2</v>
-          </cell>
-          <cell r="Q188">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="I189">
-            <v>-3.2999999999999995E-2</v>
-          </cell>
-          <cell r="J189">
-            <v>1</v>
-          </cell>
-          <cell r="L189">
-            <v>-3.3999999999999996E-2</v>
-          </cell>
-          <cell r="M189">
-            <v>1.0838395846539897</v>
-          </cell>
-          <cell r="P189">
-            <v>-1.3017947350265598E-2</v>
-          </cell>
-          <cell r="Q189">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="I190">
-            <v>-3.1999999999999994E-2</v>
-          </cell>
-          <cell r="J190">
-            <v>1</v>
-          </cell>
-          <cell r="L190">
-            <v>-3.2999999999999995E-2</v>
-          </cell>
-          <cell r="M190">
-            <v>1.3117226816436751</v>
-          </cell>
-          <cell r="O190" t="str">
-            <v>1σ</v>
-          </cell>
-          <cell r="P190">
-            <v>1.3594751197568701E-2</v>
-          </cell>
-          <cell r="Q190">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="I191">
-            <v>-3.0999999999999993E-2</v>
-          </cell>
-          <cell r="J191">
-            <v>3</v>
-          </cell>
-          <cell r="L191">
-            <v>-3.1999999999999994E-2</v>
-          </cell>
-          <cell r="M191">
-            <v>1.578578645060458</v>
-          </cell>
-          <cell r="P191">
-            <v>1.3594751197568701E-2</v>
-          </cell>
-          <cell r="Q191">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="I192">
-            <v>-2.9999999999999992E-2</v>
-          </cell>
-          <cell r="J192">
-            <v>1</v>
-          </cell>
-          <cell r="L192">
-            <v>-3.0999999999999993E-2</v>
-          </cell>
-          <cell r="M192">
-            <v>1.8890245151375733</v>
-          </cell>
-          <cell r="O192" t="str">
-            <v>2σ</v>
-          </cell>
-          <cell r="P192">
-            <v>2.6901100471485851E-2</v>
-          </cell>
-          <cell r="Q192">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="I193">
-            <v>-2.8999999999999991E-2</v>
-          </cell>
-          <cell r="J193">
-            <v>4</v>
-          </cell>
-          <cell r="L193">
-            <v>-2.9999999999999992E-2</v>
-          </cell>
-          <cell r="M193">
-            <v>2.2477920988013178</v>
-          </cell>
-          <cell r="P193">
-            <v>2.6901100471485851E-2</v>
-          </cell>
-          <cell r="Q193">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="I194">
-            <v>-2.799999999999999E-2</v>
-          </cell>
-          <cell r="J194">
-            <v>1</v>
-          </cell>
-          <cell r="L194">
-            <v>-2.8999999999999991E-2</v>
-          </cell>
-          <cell r="M194">
-            <v>2.6596339130588227</v>
-          </cell>
-          <cell r="O194" t="str">
-            <v>3σ</v>
-          </cell>
-          <cell r="P194">
-            <v>4.0207449745403002E-2</v>
-          </cell>
-          <cell r="Q194">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="I195">
-            <v>-2.6999999999999989E-2</v>
-          </cell>
-          <cell r="J195">
-            <v>4</v>
-          </cell>
-          <cell r="L195">
-            <v>-2.799999999999999E-2</v>
-          </cell>
-          <cell r="M195">
-            <v>3.1292103587889639</v>
-          </cell>
-          <cell r="P195">
-            <v>4.0207449745403002E-2</v>
-          </cell>
-          <cell r="Q195">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="I196">
-            <v>-2.5999999999999988E-2</v>
-          </cell>
-          <cell r="J196">
-            <v>1</v>
-          </cell>
-          <cell r="L196">
-            <v>-2.6999999999999989E-2</v>
-          </cell>
-          <cell r="M196">
-            <v>3.6609587205509038</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="I197">
-            <v>-2.4999999999999988E-2</v>
-          </cell>
-          <cell r="J197">
-            <v>5</v>
-          </cell>
-          <cell r="L197">
-            <v>-2.5999999999999988E-2</v>
-          </cell>
-          <cell r="M197">
-            <v>4.258945476645092</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="I198">
-            <v>-2.3999999999999987E-2</v>
-          </cell>
-          <cell r="J198">
-            <v>1</v>
-          </cell>
-          <cell r="L198">
-            <v>-2.4999999999999988E-2</v>
-          </cell>
-          <cell r="M198">
-            <v>4.9267043820016658</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="I199">
-            <v>-2.2999999999999986E-2</v>
-          </cell>
-          <cell r="J199">
-            <v>2</v>
-          </cell>
-          <cell r="L199">
-            <v>-2.3999999999999987E-2</v>
-          </cell>
-          <cell r="M199">
-            <v>5.6670638170172571</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="I200">
-            <v>-2.1999999999999985E-2</v>
-          </cell>
-          <cell r="J200">
-            <v>2</v>
-          </cell>
-          <cell r="L200">
-            <v>-2.2999999999999986E-2</v>
-          </cell>
-          <cell r="M200">
-            <v>6.4819679309391072</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="I201">
-            <v>-2.0999999999999984E-2</v>
-          </cell>
-          <cell r="J201">
-            <v>3</v>
-          </cell>
-          <cell r="L201">
-            <v>-2.1999999999999985E-2</v>
-          </cell>
-          <cell r="M201">
-            <v>7.3722970932413006</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="I202">
-            <v>-1.9999999999999983E-2</v>
-          </cell>
-          <cell r="J202">
-            <v>5</v>
-          </cell>
-          <cell r="L202">
-            <v>-2.0999999999999984E-2</v>
-          </cell>
-          <cell r="M202">
-            <v>8.3376940391129448</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="I203">
-            <v>-1.8999999999999982E-2</v>
-          </cell>
-          <cell r="J203">
-            <v>9</v>
-          </cell>
-          <cell r="L203">
-            <v>-1.9999999999999983E-2</v>
-          </cell>
-          <cell r="M203">
-            <v>9.3764027912942609</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="I204">
-            <v>-1.7999999999999981E-2</v>
-          </cell>
-          <cell r="J204">
-            <v>6</v>
-          </cell>
-          <cell r="L204">
-            <v>-1.8999999999999982E-2</v>
-          </cell>
-          <cell r="M204">
-            <v>10.485127896633797</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="I205">
-            <v>-1.699999999999998E-2</v>
-          </cell>
-          <cell r="J205">
-            <v>10</v>
-          </cell>
-          <cell r="L205">
-            <v>-1.7999999999999981E-2</v>
-          </cell>
-          <cell r="M205">
-            <v>11.658921673763489</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="I206">
-            <v>-1.599999999999998E-2</v>
-          </cell>
-          <cell r="J206">
-            <v>13</v>
-          </cell>
-          <cell r="L206">
-            <v>-1.699999999999998E-2</v>
-          </cell>
-          <cell r="M206">
-            <v>12.891106979905215</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="I207">
-            <v>-1.4999999999999979E-2</v>
-          </cell>
-          <cell r="J207">
-            <v>11</v>
-          </cell>
-          <cell r="L207">
-            <v>-1.599999999999998E-2</v>
-          </cell>
-          <cell r="M207">
-            <v>14.173242436056498</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="I208">
-            <v>-1.3999999999999978E-2</v>
-          </cell>
-          <cell r="J208">
-            <v>24</v>
-          </cell>
-          <cell r="L208">
-            <v>-1.4999999999999979E-2</v>
-          </cell>
-          <cell r="M208">
-            <v>15.495136085031207</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="I209">
-            <v>-1.2999999999999977E-2</v>
-          </cell>
-          <cell r="J209">
-            <v>18</v>
-          </cell>
-          <cell r="L209">
-            <v>-1.3999999999999978E-2</v>
-          </cell>
-          <cell r="M209">
-            <v>16.844912102018611</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="I210">
-            <v>-1.1999999999999976E-2</v>
-          </cell>
-          <cell r="J210">
-            <v>27</v>
-          </cell>
-          <cell r="L210">
-            <v>-1.2999999999999977E-2</v>
-          </cell>
-          <cell r="M210">
-            <v>18.209133462105321</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="I211">
-            <v>-1.0999999999999975E-2</v>
-          </cell>
-          <cell r="J211">
-            <v>18</v>
-          </cell>
-          <cell r="L211">
-            <v>-1.1999999999999976E-2</v>
-          </cell>
-          <cell r="M211">
-            <v>19.572981447529923</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="I212">
-            <v>-9.9999999999999742E-3</v>
-          </cell>
-          <cell r="J212">
-            <v>19</v>
-          </cell>
-          <cell r="L212">
-            <v>-1.0999999999999975E-2</v>
-          </cell>
-          <cell r="M212">
-            <v>20.920490626570793</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="I213">
-            <v>-8.9999999999999733E-3</v>
-          </cell>
-          <cell r="J213">
-            <v>24</v>
-          </cell>
-          <cell r="L213">
-            <v>-9.9999999999999742E-3</v>
-          </cell>
-          <cell r="M213">
-            <v>22.234835553740457</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="I214">
-            <v>-7.9999999999999724E-3</v>
-          </cell>
-          <cell r="J214">
-            <v>16</v>
-          </cell>
-          <cell r="L214">
-            <v>-8.9999999999999733E-3</v>
-          </cell>
-          <cell r="M214">
-            <v>23.49866304135163</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="I215">
-            <v>-6.9999999999999724E-3</v>
-          </cell>
-          <cell r="J215">
-            <v>26</v>
-          </cell>
-          <cell r="L215">
-            <v>-7.9999999999999724E-3</v>
-          </cell>
-          <cell r="M215">
-            <v>24.694461559704717</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="I216">
-            <v>-5.9999999999999724E-3</v>
-          </cell>
-          <cell r="J216">
-            <v>29</v>
-          </cell>
-          <cell r="L216">
-            <v>-6.9999999999999724E-3</v>
-          </cell>
-          <cell r="M216">
-            <v>25.804957264360048</v>
-          </cell>
-        </row>
         <row r="217">
-          <cell r="I217">
-            <v>-4.9999999999999723E-3</v>
-          </cell>
-          <cell r="J217">
-            <v>17</v>
-          </cell>
-          <cell r="L217">
-            <v>-5.9999999999999724E-3</v>
-          </cell>
-          <cell r="M217">
-            <v>26.81352444662306</v>
+          <cell r="I217" t="str">
+            <v xml:space="preserve">The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </v>
           </cell>
         </row>
         <row r="218">
-          <cell r="I218">
-            <v>-3.9999999999999723E-3</v>
-          </cell>
-          <cell r="J218">
-            <v>23</v>
-          </cell>
-          <cell r="L218">
-            <v>-4.9999999999999723E-3</v>
-          </cell>
-          <cell r="M218">
-            <v>27.704596967012165</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="I219">
-            <v>-2.9999999999999723E-3</v>
-          </cell>
-          <cell r="J219">
-            <v>37</v>
-          </cell>
-          <cell r="L219">
-            <v>-3.9999999999999723E-3</v>
-          </cell>
-          <cell r="M219">
-            <v>28.464066550027482</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="I220">
-            <v>-1.9999999999999723E-3</v>
-          </cell>
-          <cell r="J220">
-            <v>41</v>
-          </cell>
-          <cell r="L220">
-            <v>-2.9999999999999723E-3</v>
-          </cell>
-          <cell r="M220">
-            <v>29.079653753616999</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="I221">
-            <v>-9.9999999999997227E-4</v>
-          </cell>
-          <cell r="J221">
-            <v>35</v>
-          </cell>
-          <cell r="L221">
-            <v>-1.9999999999999723E-3</v>
-          </cell>
-          <cell r="M221">
-            <v>29.541238007479279</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="I222">
-            <v>2.7755575615628914E-17</v>
-          </cell>
-          <cell r="J222">
-            <v>45</v>
-          </cell>
-          <cell r="L222">
-            <v>-9.9999999999997227E-4</v>
-          </cell>
-          <cell r="M222">
-            <v>29.84113433421124</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="I223">
-            <v>1.0000000000000278E-3</v>
-          </cell>
-          <cell r="J223">
-            <v>53</v>
-          </cell>
-          <cell r="L223">
-            <v>2.7755575615628914E-17</v>
-          </cell>
-          <cell r="M223">
-            <v>29.974306183221255</v>
+          <cell r="I218" t="str">
+            <v>There is slight implied upside to mean 1-day returns</v>
           </cell>
         </row>
         <row r="224">
-          <cell r="I224">
-            <v>2.0000000000000278E-3</v>
-          </cell>
-          <cell r="J224">
-            <v>37</v>
-          </cell>
-          <cell r="L224">
-            <v>1.0000000000000278E-3</v>
-          </cell>
-          <cell r="M224">
-            <v>29.938506141234956</v>
+          <cell r="I224"/>
+          <cell r="J224" t="str">
+            <v>Min</v>
           </cell>
         </row>
         <row r="225">
-          <cell r="I225">
-            <v>3.0000000000000278E-3</v>
-          </cell>
-          <cell r="J225">
-            <v>26</v>
-          </cell>
-          <cell r="L225">
-            <v>2.0000000000000278E-3</v>
-          </cell>
-          <cell r="M225">
-            <v>29.734339026119326</v>
+          <cell r="I225"/>
+          <cell r="J225" t="str">
+            <v>Max</v>
           </cell>
         </row>
         <row r="226">
-          <cell r="I226">
-            <v>4.0000000000000278E-3</v>
-          </cell>
-          <cell r="J226">
-            <v>39</v>
-          </cell>
-          <cell r="L226">
-            <v>3.0000000000000278E-3</v>
-          </cell>
-          <cell r="M226">
-            <v>29.365244888858772</v>
+          <cell r="I226"/>
+          <cell r="J226" t="str">
+            <v>Mean μ</v>
           </cell>
         </row>
         <row r="227">
-          <cell r="I227">
-            <v>5.0000000000000279E-3</v>
-          </cell>
-          <cell r="J227">
-            <v>33</v>
-          </cell>
-          <cell r="L227">
-            <v>4.0000000000000278E-3</v>
-          </cell>
-          <cell r="M227">
-            <v>28.837402591235453</v>
+          <cell r="I227"/>
+          <cell r="J227" t="str">
+            <v>Median</v>
           </cell>
         </row>
         <row r="228">
-          <cell r="I228">
-            <v>6.0000000000000279E-3</v>
-          </cell>
-          <cell r="J228">
-            <v>29</v>
-          </cell>
-          <cell r="L228">
-            <v>5.0000000000000279E-3</v>
-          </cell>
-          <cell r="M228">
-            <v>28.159557735840721</v>
-          </cell>
+          <cell r="I228"/>
+          <cell r="J228" t="str">
+            <v>SD σ</v>
+          </cell>
+          <cell r="M228"/>
         </row>
         <row r="229">
-          <cell r="I229">
-            <v>7.0000000000000279E-3</v>
-          </cell>
-          <cell r="J229">
-            <v>26</v>
-          </cell>
-          <cell r="L229">
-            <v>6.0000000000000279E-3</v>
-          </cell>
-          <cell r="M229">
-            <v>27.342781644290781</v>
+          <cell r="I229"/>
+          <cell r="J229" t="str">
+            <v xml:space="preserve">  3σ 1-Day Δ: ±</v>
+          </cell>
+          <cell r="L229"/>
+          <cell r="M229" t="str">
+            <v>&lt;- Sharpe Ratio (Risk Adjusted Return)</v>
           </cell>
         </row>
         <row r="230">
-          <cell r="I230">
-            <v>8.0000000000000279E-3</v>
-          </cell>
-          <cell r="J230">
-            <v>22</v>
-          </cell>
-          <cell r="L230">
-            <v>7.0000000000000279E-3</v>
-          </cell>
-          <cell r="M230">
-            <v>26.400170664392089</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="I231">
-            <v>9.0000000000000288E-3</v>
-          </cell>
-          <cell r="J231">
-            <v>24</v>
-          </cell>
-          <cell r="L231">
-            <v>8.0000000000000279E-3</v>
-          </cell>
-          <cell r="M231">
-            <v>25.346497213325758</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="I232">
-            <v>1.000000000000003E-2</v>
-          </cell>
-          <cell r="J232">
-            <v>30</v>
-          </cell>
-          <cell r="L232">
-            <v>9.0000000000000288E-3</v>
-          </cell>
-          <cell r="M232">
-            <v>24.197825535155634</v>
+          <cell r="I230"/>
+          <cell r="J230" t="str">
+            <v>β (1-year avg.)</v>
+          </cell>
+          <cell r="L230"/>
+          <cell r="M230" t="str">
+            <v>&lt;- Sortino Ratio (Downside Risk Adjusted Return)</v>
           </cell>
         </row>
         <row r="233">
-          <cell r="I233">
-            <v>1.1000000000000031E-2</v>
+          <cell r="I233" t="str">
+            <v>n =</v>
           </cell>
           <cell r="J233">
-            <v>29</v>
-          </cell>
-          <cell r="L233">
-            <v>1.000000000000003E-2</v>
-          </cell>
-          <cell r="M233">
-            <v>22.971106103509396</v>
+            <v>1014</v>
           </cell>
         </row>
         <row r="234">
-          <cell r="I234">
-            <v>1.2000000000000031E-2</v>
-          </cell>
-          <cell r="J234">
-            <v>21</v>
-          </cell>
-          <cell r="L234">
-            <v>1.1000000000000031E-2</v>
-          </cell>
-          <cell r="M234">
-            <v>21.683762906467617</v>
+          <cell r="I234" t="str">
+            <v>Histogram Data</v>
+          </cell>
+          <cell r="L234" t="str">
+            <v>Distribution Overlay</v>
           </cell>
         </row>
         <row r="235">
-          <cell r="I235">
-            <v>1.3000000000000032E-2</v>
-          </cell>
-          <cell r="J235">
-            <v>19</v>
-          </cell>
-          <cell r="L235">
-            <v>1.2000000000000031E-2</v>
-          </cell>
-          <cell r="M235">
-            <v>20.353287519327644</v>
+          <cell r="I235" t="str">
+            <v>Bin</v>
+          </cell>
+          <cell r="J235" t="str">
+            <v>Frequency</v>
+          </cell>
+          <cell r="L235" t="str">
+            <v xml:space="preserve"> (X) 1-Day Δ  </v>
+          </cell>
+          <cell r="M235" t="str">
+            <v xml:space="preserve">(Y) Pop. Density </v>
           </cell>
         </row>
         <row r="236">
           <cell r="I236">
-            <v>1.4000000000000033E-2</v>
+            <v>-0.04</v>
           </cell>
           <cell r="J236">
-            <v>20</v>
+            <v>1</v>
           </cell>
           <cell r="L236">
-            <v>1.3000000000000032E-2</v>
+            <v>-4.1000000000000002E-2</v>
           </cell>
           <cell r="M236">
-            <v>18.996852945382901</v>
+            <v>0.24330261971412301</v>
           </cell>
         </row>
         <row r="237">
           <cell r="I237">
-            <v>1.5000000000000034E-2</v>
+            <v>-3.9E-2</v>
           </cell>
           <cell r="J237">
-            <v>11</v>
+            <v>1</v>
           </cell>
           <cell r="L237">
-            <v>1.4000000000000033E-2</v>
+            <v>-0.04</v>
           </cell>
           <cell r="M237">
-            <v>17.630958759087321</v>
+            <v>0.30633285338385041</v>
           </cell>
         </row>
         <row r="238">
           <cell r="I238">
-            <v>1.6000000000000035E-2</v>
+            <v>-3.7999999999999999E-2</v>
           </cell>
           <cell r="J238">
-            <v>11</v>
+            <v>0</v>
           </cell>
           <cell r="L238">
-            <v>1.5000000000000034E-2</v>
+            <v>-3.9E-2</v>
           </cell>
           <cell r="M238">
-            <v>16.271117218493135</v>
+            <v>0.38351958154803484</v>
           </cell>
         </row>
         <row r="239">
           <cell r="I239">
-            <v>1.7000000000000036E-2</v>
+            <v>-3.6999999999999998E-2</v>
           </cell>
           <cell r="J239">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="L239">
-            <v>1.6000000000000035E-2</v>
+            <v>-3.7999999999999999E-2</v>
           </cell>
           <cell r="M239">
-            <v>14.931587840618413</v>
+            <v>0.47745086551047328</v>
           </cell>
         </row>
         <row r="240">
           <cell r="I240">
-            <v>1.8000000000000037E-2</v>
+            <v>-3.5999999999999997E-2</v>
           </cell>
           <cell r="J240">
-            <v>12</v>
+            <v>1</v>
           </cell>
           <cell r="L240">
-            <v>1.7000000000000036E-2</v>
+            <v>-3.6999999999999998E-2</v>
           </cell>
           <cell r="M240">
-            <v>13.625165579865037</v>
+            <v>0.59104017531798669</v>
           </cell>
         </row>
         <row r="241">
           <cell r="I241">
-            <v>1.9000000000000038E-2</v>
+            <v>-3.4999999999999996E-2</v>
           </cell>
           <cell r="J241">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="L241">
-            <v>1.8000000000000037E-2</v>
+            <v>-3.5999999999999997E-2</v>
           </cell>
           <cell r="M241">
-            <v>12.363025342638814</v>
+            <v>0.72753266253923077</v>
           </cell>
         </row>
         <row r="242">
           <cell r="I242">
-            <v>2.0000000000000039E-2</v>
+            <v>-3.3999999999999996E-2</v>
           </cell>
           <cell r="J242">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="L242">
-            <v>1.9000000000000038E-2</v>
+            <v>-3.4999999999999996E-2</v>
           </cell>
           <cell r="M242">
-            <v>11.154623231589555</v>
+            <v>0.89050254374147597</v>
           </cell>
         </row>
         <row r="243">
           <cell r="I243">
-            <v>2.1000000000000039E-2</v>
+            <v>-3.2999999999999995E-2</v>
           </cell>
           <cell r="J243">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="L243">
-            <v>2.0000000000000039E-2</v>
+            <v>-3.3999999999999996E-2</v>
           </cell>
           <cell r="M243">
-            <v>10.007652748181465</v>
+            <v>1.0838395846539897</v>
           </cell>
         </row>
         <row r="244">
           <cell r="I244">
-            <v>2.200000000000004E-2</v>
+            <v>-3.1999999999999994E-2</v>
           </cell>
           <cell r="J244">
-            <v>14</v>
+            <v>1</v>
           </cell>
           <cell r="L244">
-            <v>2.1000000000000039E-2</v>
+            <v>-3.2999999999999995E-2</v>
           </cell>
           <cell r="M244">
-            <v>8.9280522821969779</v>
+            <v>1.3117226816436751</v>
           </cell>
         </row>
         <row r="245">
           <cell r="I245">
-            <v>2.3000000000000041E-2</v>
+            <v>-3.0999999999999993E-2</v>
           </cell>
           <cell r="J245">
             <v>3</v>
           </cell>
           <cell r="L245">
-            <v>2.200000000000004E-2</v>
+            <v>-3.1999999999999994E-2</v>
           </cell>
           <cell r="M245">
-            <v>7.9200586489003983</v>
+            <v>1.578578645060458</v>
           </cell>
         </row>
         <row r="246">
           <cell r="I246">
-            <v>2.4000000000000042E-2</v>
+            <v>-2.9999999999999992E-2</v>
           </cell>
           <cell r="J246">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="L246">
-            <v>2.3000000000000041E-2</v>
+            <v>-3.0999999999999993E-2</v>
           </cell>
           <cell r="M246">
-            <v>6.9863002426241483</v>
+            <v>1.8890245151375733</v>
           </cell>
         </row>
         <row r="247">
           <cell r="I247">
-            <v>2.5000000000000043E-2</v>
+            <v>-2.8999999999999991E-2</v>
           </cell>
           <cell r="J247">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="L247">
-            <v>2.4000000000000042E-2</v>
+            <v>-2.9999999999999992E-2</v>
           </cell>
           <cell r="M247">
-            <v>6.1279225789406535</v>
+            <v>2.2477920988013178</v>
           </cell>
         </row>
         <row r="248">
           <cell r="I248">
-            <v>2.6000000000000044E-2</v>
+            <v>-2.799999999999999E-2</v>
           </cell>
           <cell r="J248">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="L248">
-            <v>2.5000000000000043E-2</v>
+            <v>-2.8999999999999991E-2</v>
           </cell>
           <cell r="M248">
-            <v>5.3447385928472428</v>
+            <v>2.6596339130588227</v>
           </cell>
         </row>
         <row r="249">
           <cell r="I249">
-            <v>2.7000000000000045E-2</v>
+            <v>-2.6999999999999989E-2</v>
           </cell>
           <cell r="J249">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="L249">
-            <v>2.6000000000000044E-2</v>
+            <v>-2.799999999999999E-2</v>
           </cell>
           <cell r="M249">
-            <v>4.6353960236808662</v>
+            <v>3.1292103587889639</v>
           </cell>
         </row>
         <row r="250">
           <cell r="I250">
-            <v>2.8000000000000046E-2</v>
+            <v>-2.5999999999999988E-2</v>
           </cell>
           <cell r="J250">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="L250">
-            <v>2.7000000000000045E-2</v>
+            <v>-2.6999999999999989E-2</v>
           </cell>
           <cell r="M250">
-            <v>3.9975545082321977</v>
+            <v>3.6609587205509038</v>
           </cell>
         </row>
         <row r="251">
           <cell r="I251">
-            <v>2.9000000000000047E-2</v>
+            <v>-2.4999999999999988E-2</v>
           </cell>
           <cell r="J251">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="L251">
-            <v>2.8000000000000046E-2</v>
+            <v>-2.5999999999999988E-2</v>
           </cell>
           <cell r="M251">
-            <v>3.4280655687282566</v>
+            <v>4.258945476645092</v>
           </cell>
         </row>
         <row r="252">
           <cell r="I252">
-            <v>3.0000000000000047E-2</v>
+            <v>-2.3999999999999987E-2</v>
           </cell>
           <cell r="J252">
             <v>1</v>
           </cell>
           <cell r="L252">
-            <v>2.9000000000000047E-2</v>
+            <v>-2.4999999999999988E-2</v>
           </cell>
           <cell r="M252">
-            <v>2.9231494610784972</v>
+            <v>4.9267043820016658</v>
           </cell>
         </row>
         <row r="253">
           <cell r="I253">
-            <v>3.1000000000000048E-2</v>
+            <v>-2.2999999999999986E-2</v>
           </cell>
           <cell r="J253">
             <v>2</v>
           </cell>
           <cell r="L253">
-            <v>3.0000000000000047E-2</v>
+            <v>-2.3999999999999987E-2</v>
           </cell>
           <cell r="M253">
-            <v>2.4785637766983237</v>
+            <v>5.6670638170172571</v>
           </cell>
         </row>
         <row r="254">
           <cell r="I254">
-            <v>3.2000000000000049E-2</v>
+            <v>-2.1999999999999985E-2</v>
           </cell>
           <cell r="J254">
             <v>2</v>
           </cell>
           <cell r="L254">
-            <v>3.1000000000000048E-2</v>
+            <v>-2.2999999999999986E-2</v>
           </cell>
           <cell r="M254">
-            <v>2.089759704725016</v>
+            <v>6.4819679309391072</v>
           </cell>
         </row>
         <row r="255">
           <cell r="I255">
-            <v>3.300000000000005E-2</v>
+            <v>-2.0999999999999984E-2</v>
           </cell>
           <cell r="J255">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="L255">
-            <v>3.2000000000000049E-2</v>
+            <v>-2.1999999999999985E-2</v>
           </cell>
           <cell r="M255">
-            <v>1.7520229011767259</v>
+            <v>7.3722970932413006</v>
           </cell>
         </row>
         <row r="256">
           <cell r="I256">
-            <v>3.4000000000000051E-2</v>
+            <v>-1.9999999999999983E-2</v>
           </cell>
           <cell r="J256">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="L256">
-            <v>3.300000000000005E-2</v>
+            <v>-2.0999999999999984E-2</v>
           </cell>
           <cell r="M256">
-            <v>1.4605969252869571</v>
+            <v>8.3376940391129448</v>
           </cell>
         </row>
         <row r="257">
           <cell r="I257">
-            <v>3.5000000000000052E-2</v>
+            <v>-1.8999999999999982E-2</v>
           </cell>
           <cell r="J257">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="L257">
-            <v>3.4000000000000051E-2</v>
+            <v>-1.9999999999999983E-2</v>
           </cell>
           <cell r="M257">
-            <v>1.210788147600123</v>
+            <v>9.3764027912942609</v>
           </cell>
         </row>
         <row r="258">
           <cell r="I258">
-            <v>3.6000000000000053E-2</v>
+            <v>-1.7999999999999981E-2</v>
           </cell>
           <cell r="J258">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="L258">
-            <v>3.5000000000000052E-2</v>
+            <v>-1.8999999999999982E-2</v>
           </cell>
           <cell r="M258">
-            <v>0.99805187629411873</v>
+            <v>10.485127896633797</v>
           </cell>
         </row>
         <row r="259">
           <cell r="I259">
-            <v>3.7000000000000054E-2</v>
+            <v>-1.699999999999998E-2</v>
           </cell>
           <cell r="J259">
-            <v>0</v>
+            <v>10</v>
           </cell>
           <cell r="L259">
-            <v>3.6000000000000053E-2</v>
+            <v>-1.7999999999999981E-2</v>
           </cell>
           <cell r="M259">
-            <v>0.81806016490533739</v>
+            <v>11.658921673763489</v>
           </cell>
         </row>
         <row r="260">
           <cell r="I260">
-            <v>3.8000000000000055E-2</v>
+            <v>-1.599999999999998E-2</v>
           </cell>
           <cell r="J260">
-            <v>0</v>
+            <v>13</v>
           </cell>
           <cell r="L260">
-            <v>3.7000000000000054E-2</v>
+            <v>-1.699999999999998E-2</v>
           </cell>
           <cell r="M260">
-            <v>0.66675234354585899</v>
+            <v>12.891106979905215</v>
           </cell>
         </row>
         <row r="261">
           <cell r="I261">
-            <v>3.9000000000000055E-2</v>
+            <v>-1.4999999999999979E-2</v>
           </cell>
           <cell r="J261">
-            <v>0</v>
+            <v>11</v>
           </cell>
           <cell r="L261">
-            <v>3.8000000000000055E-2</v>
+            <v>-1.599999999999998E-2</v>
           </cell>
           <cell r="M261">
-            <v>0.54036975333680215</v>
+            <v>14.173242436056498</v>
           </cell>
         </row>
         <row r="262">
           <cell r="I262">
-            <v>4.0000000000000056E-2</v>
+            <v>-1.3999999999999978E-2</v>
           </cell>
           <cell r="J262">
-            <v>1</v>
+            <v>24</v>
           </cell>
           <cell r="L262">
-            <v>3.9000000000000055E-2</v>
+            <v>-1.4999999999999979E-2</v>
           </cell>
           <cell r="M262">
-            <v>0.43547646445183286</v>
+            <v>15.495136085031207</v>
           </cell>
         </row>
         <row r="263">
           <cell r="L263">
-            <v>4.0000000000000056E-2</v>
+            <v>-1.3999999999999978E-2</v>
           </cell>
           <cell r="M263">
-            <v>0.34896793239983337</v>
+            <v>16.844912102018611</v>
           </cell>
         </row>
         <row r="264">
           <cell r="L264">
-            <v>4.1000000000000002E-2</v>
+            <v>-1.2999999999999977E-2</v>
           </cell>
           <cell r="M264">
-            <v>0.27806961002886771</v>
+            <v>18.209133462105321</v>
           </cell>
         </row>
       </sheetData>
@@ -10543,7 +9067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -10716,7 +9240,7 @@
   <dimension ref="B1:FJ122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CG96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="CG18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="BW135" sqref="BW135"/>
@@ -16250,7 +14774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6963948-7FD9-4D33-AAA7-BDE5D55568DA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
